--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="52" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -274,6 +274,102 @@
   </si>
   <si>
     <t>SL: 1</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ lỗi format</t>
+  </si>
+  <si>
+    <t>Format lại thẻ</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Thẻ lỗi</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Xử lý lại MCU</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t>Thiết bị có dấu hiệu nước vào gây mất nguồn</t>
+  </si>
+  <si>
+    <t>Thay cấu chì, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Id: 202102190820346, Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Sim lỗi, hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
   </si>
 </sst>
 </file>
@@ -732,6 +828,42 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,52 +900,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1155,40 +1251,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1231,57 +1327,57 @@
       <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="98" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1306,32 +1402,32 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
     </row>
     <row r="6" spans="1:22" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="78">
         <v>44861</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="57" t="s">
         <v>56</v>
       </c>
@@ -1343,19 +1439,19 @@
         <v>65</v>
       </c>
       <c r="H6" s="57"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="100"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="84"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1366,34 +1462,54 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="78">
         <v>44861</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="57" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="58">
         <v>862205051184069</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="57" t="s">
+        <v>67</v>
+      </c>
       <c r="G7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="100"/>
+      <c r="H7" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="84"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1402,26 +1518,26 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="57"/>
       <c r="E8" s="68"/>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
       <c r="H8" s="57"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="100"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="84"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1430,26 +1546,26 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="57"/>
       <c r="E9" s="68"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="100"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="84"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1458,26 +1574,26 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="57"/>
       <c r="E10" s="68"/>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="100"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="84"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1486,26 +1602,26 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="57"/>
       <c r="E11" s="68"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="100"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="84"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1514,26 +1630,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="57"/>
       <c r="E12" s="68"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="100"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="84"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1544,26 +1660,26 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="57"/>
       <c r="E13" s="58"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="100"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="84"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1572,26 +1688,26 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="57"/>
       <c r="E14" s="58"/>
-      <c r="F14" s="101"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="100"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="84"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1600,26 +1716,26 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="57"/>
       <c r="E15" s="58"/>
-      <c r="F15" s="101"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="57"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="100"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="84"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1628,26 +1744,26 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="57"/>
       <c r="E16" s="58"/>
-      <c r="F16" s="101"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="84"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1656,23 +1772,23 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
-      <c r="F17" s="101"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="57"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="100"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="84"/>
       <c r="T17" s="13"/>
       <c r="U17" s="67"/>
       <c r="V17" s="14"/>
@@ -1681,24 +1797,24 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="57"/>
       <c r="E18" s="58"/>
-      <c r="F18" s="101"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="57"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="100"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="84"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -1707,24 +1823,24 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
-      <c r="F19" s="101"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="100"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="84"/>
       <c r="T19" s="13"/>
       <c r="U19" s="66" t="s">
         <v>39</v>
@@ -1737,24 +1853,24 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="57"/>
       <c r="E20" s="58"/>
-      <c r="F20" s="101"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="57"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="100"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="84"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
@@ -1768,55 +1884,55 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="57"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="101"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="100"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="84"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="57"/>
       <c r="E22" s="58"/>
-      <c r="F22" s="101"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="57"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="100"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="84"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
         <v>50</v>
@@ -1830,24 +1946,24 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="57"/>
       <c r="E23" s="58"/>
-      <c r="F23" s="101"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="57"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="100"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="84"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="15"/>
@@ -1856,24 +1972,24 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="57"/>
       <c r="E24" s="58"/>
-      <c r="F24" s="101"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="57"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="100"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="84"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="15"/>
@@ -1882,24 +1998,24 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="57"/>
       <c r="E25" s="58"/>
-      <c r="F25" s="101"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="100"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="84"/>
       <c r="T25" s="13"/>
       <c r="U25" s="66" t="s">
         <v>46</v>
@@ -1912,55 +2028,55 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="57"/>
       <c r="E26" s="58"/>
-      <c r="F26" s="101"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="57"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="100"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="84"/>
       <c r="T26" s="13"/>
       <c r="U26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="57"/>
       <c r="E27" s="58"/>
-      <c r="F27" s="101"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="57"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="100"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="84"/>
       <c r="T27" s="13"/>
       <c r="U27" s="3" t="s">
         <v>34</v>
@@ -1974,24 +2090,24 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="57"/>
       <c r="E28" s="58"/>
-      <c r="F28" s="101"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="57"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="100"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="84"/>
       <c r="T28" s="13"/>
       <c r="U28" s="3" t="s">
         <v>27</v>
@@ -2005,24 +2121,24 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="57"/>
       <c r="E29" s="58"/>
-      <c r="F29" s="101"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="57"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="100"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="84"/>
       <c r="T29" s="13"/>
       <c r="U29" s="3" t="s">
         <v>52</v>
@@ -2036,24 +2152,24 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="57"/>
       <c r="E30" s="58"/>
-      <c r="F30" s="101"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="57"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="100"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="84"/>
       <c r="T30" s="13"/>
       <c r="U30" s="3" t="s">
         <v>32</v>
@@ -2067,24 +2183,24 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="57"/>
       <c r="E31" s="58"/>
-      <c r="F31" s="101"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="57"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="100"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="84"/>
       <c r="T31" s="13"/>
       <c r="U31" s="3" t="s">
         <v>22</v>
@@ -2098,24 +2214,24 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="57"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="101"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="57"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="100"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="84"/>
       <c r="T32" s="13"/>
       <c r="U32" s="3" t="s">
         <v>28</v>
@@ -2129,24 +2245,24 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="57"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="101"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="57"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="100"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="84"/>
       <c r="T33" s="13"/>
       <c r="U33" s="3" t="s">
         <v>47</v>
@@ -2160,24 +2276,24 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="57"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="101"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="57"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="100"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="84"/>
       <c r="T34" s="13"/>
       <c r="U34" s="3" t="s">
         <v>48</v>
@@ -2191,24 +2307,24 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="57"/>
       <c r="E35" s="58"/>
-      <c r="F35" s="101"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="57"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="100"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="84"/>
       <c r="T35" s="13"/>
       <c r="U35" s="3" t="s">
         <v>38</v>
@@ -2222,24 +2338,24 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="57"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="101"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="57"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="100"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="84"/>
       <c r="T36" s="13"/>
       <c r="U36" s="3" t="s">
         <v>29</v>
@@ -2253,55 +2369,55 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="101"/>
+      <c r="F37" s="85"/>
       <c r="G37" s="57"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="98"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="100"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="84"/>
       <c r="T37" s="13"/>
       <c r="U37" s="17" t="s">
         <v>33</v>
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="57"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="101"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="57"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="99"/>
-      <c r="S38" s="100"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="84"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="15"/>
@@ -2310,24 +2426,24 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
       <c r="D39" s="57"/>
       <c r="E39" s="58"/>
-      <c r="F39" s="101"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="57"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="100"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="80"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="84"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="15"/>
@@ -2336,24 +2452,24 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="57"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="101"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="57"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="100"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="80"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="84"/>
       <c r="T40" s="13"/>
       <c r="U40" s="17" t="s">
         <v>40</v>
@@ -2367,24 +2483,24 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="57"/>
       <c r="E41" s="58"/>
-      <c r="F41" s="101"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="57"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="100"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="84"/>
       <c r="T41" s="13"/>
       <c r="U41" s="17" t="s">
         <v>41</v>
@@ -2398,24 +2514,24 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="57"/>
       <c r="E42" s="58"/>
-      <c r="F42" s="101"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="57"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="100"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="80"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="84"/>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="15"/>
@@ -2424,24 +2540,24 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="57"/>
       <c r="E43" s="58"/>
-      <c r="F43" s="101"/>
+      <c r="F43" s="85"/>
       <c r="G43" s="57"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="100"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="84"/>
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="15"/>
@@ -2450,24 +2566,24 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="57"/>
       <c r="E44" s="58"/>
-      <c r="F44" s="101"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="57"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="100"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="84"/>
       <c r="T44" s="13"/>
       <c r="U44" s="9" t="s">
         <v>3</v>
@@ -2483,24 +2599,24 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="57"/>
       <c r="E45" s="58"/>
-      <c r="F45" s="101"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="57"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="100"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="84"/>
       <c r="T45" s="13"/>
       <c r="U45" s="9" t="s">
         <v>44</v>
@@ -2518,24 +2634,24 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="57"/>
       <c r="E46" s="58"/>
-      <c r="F46" s="101"/>
+      <c r="F46" s="85"/>
       <c r="G46" s="57"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="99"/>
-      <c r="S46" s="100"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="84"/>
       <c r="T46" s="13"/>
       <c r="U46" s="9" t="s">
         <v>56</v>
@@ -2553,24 +2669,24 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="57"/>
       <c r="E47" s="58"/>
-      <c r="F47" s="101"/>
+      <c r="F47" s="85"/>
       <c r="G47" s="57"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="100"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="84"/>
       <c r="T47" s="13"/>
       <c r="U47" s="9" t="s">
         <v>45</v>
@@ -2588,24 +2704,24 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="57"/>
       <c r="E48" s="58"/>
-      <c r="F48" s="101"/>
+      <c r="F48" s="85"/>
       <c r="G48" s="57"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="99"/>
-      <c r="S48" s="100"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="80"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="84"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
         <v>0</v>
@@ -2626,24 +2742,24 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="57"/>
       <c r="E49" s="58"/>
-      <c r="F49" s="101"/>
+      <c r="F49" s="85"/>
       <c r="G49" s="57"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="98"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="99"/>
-      <c r="S49" s="100"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="84"/>
       <c r="T49" s="34"/>
       <c r="U49" s="43"/>
       <c r="V49" s="43"/>
@@ -2653,24 +2769,24 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="57"/>
       <c r="E50" s="58"/>
-      <c r="F50" s="101"/>
+      <c r="F50" s="85"/>
       <c r="G50" s="57"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="98"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="99"/>
-      <c r="S50" s="104"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="88"/>
       <c r="T50" s="34"/>
       <c r="U50" s="43"/>
       <c r="V50" s="43"/>
@@ -2680,24 +2796,24 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="57"/>
       <c r="E51" s="58"/>
-      <c r="F51" s="101"/>
+      <c r="F51" s="85"/>
       <c r="G51" s="57"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="98"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="98"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="99"/>
-      <c r="S51" s="102"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="86"/>
       <c r="T51" s="34"/>
       <c r="U51" s="43"/>
       <c r="V51" s="43"/>
@@ -2707,23 +2823,23 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="57"/>
       <c r="E52" s="58"/>
-      <c r="F52" s="101"/>
+      <c r="F52" s="85"/>
       <c r="G52" s="57"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="95"/>
+      <c r="I52" s="79"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="99"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="80"/>
+      <c r="R52" s="83"/>
       <c r="S52" s="32"/>
       <c r="T52" s="34"/>
       <c r="U52" s="43"/>
@@ -2734,23 +2850,23 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="57"/>
       <c r="E53" s="58"/>
-      <c r="F53" s="101"/>
+      <c r="F53" s="85"/>
       <c r="G53" s="57"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="95"/>
+      <c r="I53" s="79"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="99"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="83"/>
       <c r="S53" s="32"/>
       <c r="T53" s="34"/>
       <c r="U53" s="43"/>
@@ -2761,23 +2877,23 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="57"/>
       <c r="E54" s="58"/>
-      <c r="F54" s="101"/>
+      <c r="F54" s="85"/>
       <c r="G54" s="57"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="95"/>
+      <c r="I54" s="79"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="98"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="99"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="83"/>
       <c r="S54" s="32"/>
       <c r="T54" s="34"/>
       <c r="U54" s="43"/>
@@ -2788,23 +2904,23 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="57"/>
       <c r="E55" s="58"/>
-      <c r="F55" s="101"/>
+      <c r="F55" s="85"/>
       <c r="G55" s="57"/>
       <c r="H55" s="32"/>
-      <c r="I55" s="95"/>
+      <c r="I55" s="79"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="99"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="83"/>
       <c r="S55" s="32"/>
       <c r="T55" s="35"/>
       <c r="U55" s="43"/>
@@ -2815,23 +2931,23 @@
       <c r="A56" s="3">
         <v>51</v>
       </c>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="57"/>
       <c r="E56" s="58"/>
-      <c r="F56" s="101"/>
+      <c r="F56" s="85"/>
       <c r="G56" s="57"/>
       <c r="H56" s="32"/>
-      <c r="I56" s="95"/>
+      <c r="I56" s="79"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="99"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="83"/>
       <c r="S56" s="32"/>
       <c r="U56" s="24"/>
       <c r="V56" s="24"/>
@@ -2840,23 +2956,23 @@
       <c r="A57" s="3">
         <v>52</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="57"/>
       <c r="E57" s="58"/>
-      <c r="F57" s="101"/>
+      <c r="F57" s="85"/>
       <c r="G57" s="57"/>
       <c r="H57" s="32"/>
-      <c r="I57" s="95"/>
+      <c r="I57" s="79"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="99"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="83"/>
       <c r="S57" s="32"/>
       <c r="U57" s="24"/>
       <c r="V57" s="24"/>
@@ -2865,76 +2981,76 @@
       <c r="A58" s="3">
         <v>53</v>
       </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="57"/>
       <c r="E58" s="58"/>
-      <c r="F58" s="101"/>
+      <c r="F58" s="85"/>
       <c r="G58" s="57"/>
       <c r="H58" s="32"/>
-      <c r="I58" s="95"/>
+      <c r="I58" s="79"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="99"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="82"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="83"/>
       <c r="S58" s="32"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>54</v>
       </c>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="57"/>
       <c r="E59" s="58"/>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
       <c r="H59" s="32"/>
-      <c r="I59" s="95"/>
+      <c r="I59" s="79"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="99"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="82"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="83"/>
       <c r="S59" s="32"/>
     </row>
     <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>55</v>
       </c>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="57"/>
       <c r="E60" s="58"/>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
       <c r="H60" s="32"/>
-      <c r="I60" s="95"/>
+      <c r="I60" s="79"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="96"/>
-      <c r="P60" s="98"/>
-      <c r="Q60" s="96"/>
-      <c r="R60" s="99"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="82"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="83"/>
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>56</v>
       </c>
-      <c r="B61" s="94"/>
+      <c r="B61" s="78"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
@@ -2944,7 +3060,7 @@
       <c r="I61" s="52"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
-      <c r="L61" s="98" t="s">
+      <c r="L61" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M61" s="32"/>
@@ -2959,7 +3075,7 @@
       <c r="A62" s="3">
         <v>57</v>
       </c>
-      <c r="B62" s="94"/>
+      <c r="B62" s="78"/>
       <c r="C62" s="32"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
@@ -2969,7 +3085,7 @@
       <c r="I62" s="52"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
-      <c r="L62" s="98" t="s">
+      <c r="L62" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M62" s="32"/>
@@ -2984,7 +3100,7 @@
       <c r="A63" s="3">
         <v>58</v>
       </c>
-      <c r="B63" s="94"/>
+      <c r="B63" s="78"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
@@ -2994,7 +3110,7 @@
       <c r="I63" s="52"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
-      <c r="L63" s="98" t="s">
+      <c r="L63" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M63" s="32"/>
@@ -3009,7 +3125,7 @@
       <c r="A64" s="3">
         <v>59</v>
       </c>
-      <c r="B64" s="94"/>
+      <c r="B64" s="78"/>
       <c r="C64" s="32"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
@@ -3019,7 +3135,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
-      <c r="L64" s="98" t="s">
+      <c r="L64" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M64" s="32"/>
@@ -3034,7 +3150,7 @@
       <c r="A65" s="3">
         <v>60</v>
       </c>
-      <c r="B65" s="94"/>
+      <c r="B65" s="78"/>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32"/>
@@ -3044,7 +3160,7 @@
       <c r="I65" s="52"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
-      <c r="L65" s="98" t="s">
+      <c r="L65" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M65" s="32"/>
@@ -3057,13 +3173,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3075,6 +3184,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3085,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3118,41 +3234,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3197,58 +3313,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="98" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3273,33 +3389,33 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="78">
         <v>44861</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="57" t="s">
         <v>66</v>
       </c>
@@ -3311,19 +3427,35 @@
         <v>63</v>
       </c>
       <c r="H6" s="57"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="100"/>
+      <c r="I6" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="84"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3335,10 +3467,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="78">
         <v>44861</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="57" t="s">
         <v>66</v>
       </c>
@@ -3350,19 +3482,35 @@
         <v>63</v>
       </c>
       <c r="H7" s="57"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="100"/>
+      <c r="I7" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="84"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3372,26 +3520,26 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="57"/>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
       <c r="H8" s="57"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="100"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="84"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3401,26 +3549,26 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="57"/>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="100"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="84"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3430,26 +3578,26 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="57"/>
       <c r="E10" s="58"/>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="100"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="84"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3459,26 +3607,26 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="57"/>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
       <c r="K11" s="58"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="100"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="84"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3488,26 +3636,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="57"/>
       <c r="E12" s="58"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="100"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="84"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3519,26 +3667,26 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="57"/>
       <c r="E13" s="58"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="100"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="84"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3548,26 +3696,26 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="57"/>
       <c r="E14" s="58"/>
-      <c r="F14" s="101"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="100"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="84"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3577,26 +3725,26 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="57"/>
       <c r="E15" s="58"/>
-      <c r="F15" s="101"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="57"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="100"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="84"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3606,26 +3754,26 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="57"/>
       <c r="E16" s="58"/>
-      <c r="F16" s="101"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="84"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3635,23 +3783,23 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
-      <c r="F17" s="101"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="57"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="100"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="84"/>
       <c r="T17" s="13"/>
       <c r="U17" s="67"/>
       <c r="V17" s="14"/>
@@ -3661,24 +3809,24 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="57"/>
       <c r="E18" s="58"/>
-      <c r="F18" s="101"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="57"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="100"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="84"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -3688,24 +3836,24 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
-      <c r="F19" s="101"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="100"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="84"/>
       <c r="T19" s="13"/>
       <c r="U19" s="66" t="s">
         <v>39</v>
@@ -3719,31 +3867,31 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="57"/>
       <c r="E20" s="58"/>
-      <c r="F20" s="101"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="57"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="100"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="84"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3751,24 +3899,24 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="57"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="101"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="100"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="84"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>49</v>
@@ -3783,24 +3931,24 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="57"/>
       <c r="E22" s="58"/>
-      <c r="F22" s="101"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="57"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="100"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="84"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
         <v>50</v>
@@ -3815,24 +3963,24 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="57"/>
       <c r="E23" s="58"/>
-      <c r="F23" s="101"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="57"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="100"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="84"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="15"/>
@@ -3842,24 +3990,24 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="57"/>
       <c r="E24" s="58"/>
-      <c r="F24" s="101"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="57"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="100"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="84"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="15"/>
@@ -3869,24 +4017,24 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="57"/>
       <c r="E25" s="58"/>
-      <c r="F25" s="101"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="100"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="84"/>
       <c r="T25" s="13"/>
       <c r="U25" s="66" t="s">
         <v>46</v>
@@ -3900,24 +4048,24 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="57"/>
       <c r="E26" s="58"/>
-      <c r="F26" s="101"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="57"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="100"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="84"/>
       <c r="T26" s="13"/>
       <c r="U26" s="3" t="s">
         <v>26</v>
@@ -3932,24 +4080,24 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="57"/>
       <c r="E27" s="58"/>
-      <c r="F27" s="101"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="57"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="100"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="84"/>
       <c r="T27" s="13"/>
       <c r="U27" s="3" t="s">
         <v>34</v>
@@ -3964,24 +4112,24 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="57"/>
       <c r="E28" s="58"/>
-      <c r="F28" s="101"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="57"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="100"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="84"/>
       <c r="T28" s="13"/>
       <c r="U28" s="3" t="s">
         <v>27</v>
@@ -3996,24 +4144,24 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="57"/>
       <c r="E29" s="58"/>
-      <c r="F29" s="101"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="57"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="100"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="84"/>
       <c r="T29" s="13"/>
       <c r="U29" s="3" t="s">
         <v>52</v>
@@ -4028,24 +4176,24 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="57"/>
       <c r="E30" s="58"/>
-      <c r="F30" s="101"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="57"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="100"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="84"/>
       <c r="T30" s="13"/>
       <c r="U30" s="3" t="s">
         <v>32</v>
@@ -4060,24 +4208,24 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="57"/>
       <c r="E31" s="58"/>
-      <c r="F31" s="101"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="57"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="100"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="84"/>
       <c r="T31" s="13"/>
       <c r="U31" s="3" t="s">
         <v>22</v>
@@ -4092,24 +4240,24 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="57"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="101"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="57"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="100"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="84"/>
       <c r="T32" s="13"/>
       <c r="U32" s="3" t="s">
         <v>28</v>
@@ -4124,24 +4272,24 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="57"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="101"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="57"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="100"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="84"/>
       <c r="T33" s="13"/>
       <c r="U33" s="3" t="s">
         <v>47</v>
@@ -4156,24 +4304,24 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="57"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="101"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="57"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="100"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="84"/>
       <c r="T34" s="13"/>
       <c r="U34" s="3" t="s">
         <v>48</v>
@@ -4188,24 +4336,24 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="57"/>
       <c r="E35" s="58"/>
-      <c r="F35" s="101"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="57"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="100"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="84"/>
       <c r="T35" s="13"/>
       <c r="U35" s="3" t="s">
         <v>38</v>
@@ -4220,31 +4368,31 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="57"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="101"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="57"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="100"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="84"/>
       <c r="T36" s="13"/>
       <c r="U36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4252,31 +4400,31 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="101"/>
+      <c r="F37" s="85"/>
       <c r="G37" s="57"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="98"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="100"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="84"/>
       <c r="T37" s="13"/>
       <c r="U37" s="17" t="s">
         <v>33</v>
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4284,24 +4432,24 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="57"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="101"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="57"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="99"/>
-      <c r="S38" s="100"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="84"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="15"/>
@@ -4311,24 +4459,24 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
       <c r="D39" s="57"/>
       <c r="E39" s="58"/>
-      <c r="F39" s="101"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="57"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="100"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="80"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="84"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="15"/>
@@ -4338,24 +4486,24 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="57"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="101"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="57"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="100"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="80"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="84"/>
       <c r="T40" s="13"/>
       <c r="U40" s="17" t="s">
         <v>40</v>
@@ -4370,24 +4518,24 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="57"/>
       <c r="E41" s="58"/>
-      <c r="F41" s="101"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="57"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="100"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="84"/>
       <c r="T41" s="13"/>
       <c r="U41" s="17" t="s">
         <v>41</v>
@@ -4402,24 +4550,24 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="57"/>
       <c r="E42" s="58"/>
-      <c r="F42" s="101"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="57"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="100"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="80"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="84"/>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="15"/>
@@ -4429,24 +4577,24 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="57"/>
       <c r="E43" s="58"/>
-      <c r="F43" s="101"/>
+      <c r="F43" s="85"/>
       <c r="G43" s="57"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="100"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="84"/>
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="15"/>
@@ -4456,24 +4604,24 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="57"/>
       <c r="E44" s="58"/>
-      <c r="F44" s="101"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="57"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="100"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="84"/>
       <c r="T44" s="13"/>
       <c r="U44" s="9" t="s">
         <v>3</v>
@@ -4492,24 +4640,24 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="57"/>
       <c r="E45" s="58"/>
-      <c r="F45" s="101"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="57"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="100"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="84"/>
       <c r="T45" s="13"/>
       <c r="U45" s="9" t="s">
         <v>44</v>
@@ -4531,24 +4679,24 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="57"/>
       <c r="E46" s="58"/>
-      <c r="F46" s="101"/>
+      <c r="F46" s="85"/>
       <c r="G46" s="57"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="99"/>
-      <c r="S46" s="100"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="84"/>
       <c r="T46" s="13"/>
       <c r="U46" s="9" t="s">
         <v>56</v>
@@ -4570,24 +4718,24 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="57"/>
       <c r="E47" s="58"/>
-      <c r="F47" s="101"/>
+      <c r="F47" s="85"/>
       <c r="G47" s="57"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="100"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="84"/>
       <c r="T47" s="13"/>
       <c r="U47" s="9" t="s">
         <v>45</v>
@@ -4609,24 +4757,24 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="57"/>
       <c r="E48" s="58"/>
-      <c r="F48" s="101"/>
+      <c r="F48" s="85"/>
       <c r="G48" s="57"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="99"/>
-      <c r="S48" s="100"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="80"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="84"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
         <v>0</v>
@@ -4651,24 +4799,24 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="57"/>
       <c r="E49" s="58"/>
-      <c r="F49" s="101"/>
+      <c r="F49" s="85"/>
       <c r="G49" s="57"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="98"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="99"/>
-      <c r="S49" s="100"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="84"/>
       <c r="T49" s="34"/>
       <c r="U49" s="43"/>
       <c r="V49" s="43"/>
@@ -4679,24 +4827,24 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="57"/>
       <c r="E50" s="58"/>
-      <c r="F50" s="101"/>
+      <c r="F50" s="85"/>
       <c r="G50" s="57"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="98"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="99"/>
-      <c r="S50" s="104"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="88"/>
       <c r="T50" s="34"/>
       <c r="U50" s="43"/>
       <c r="V50" s="43"/>
@@ -4707,24 +4855,24 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="57"/>
       <c r="E51" s="58"/>
-      <c r="F51" s="101"/>
+      <c r="F51" s="85"/>
       <c r="G51" s="57"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="98"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="98"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="99"/>
-      <c r="S51" s="102"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="86"/>
       <c r="T51" s="34"/>
       <c r="U51" s="43"/>
       <c r="V51" s="43"/>
@@ -4735,23 +4883,23 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="57"/>
       <c r="E52" s="58"/>
-      <c r="F52" s="101"/>
+      <c r="F52" s="85"/>
       <c r="G52" s="57"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="95"/>
+      <c r="I52" s="79"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="99"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="80"/>
+      <c r="R52" s="83"/>
       <c r="S52" s="32"/>
       <c r="T52" s="34"/>
       <c r="U52" s="43"/>
@@ -4763,23 +4911,23 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="57"/>
       <c r="E53" s="58"/>
-      <c r="F53" s="101"/>
+      <c r="F53" s="85"/>
       <c r="G53" s="57"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="95"/>
+      <c r="I53" s="79"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="99"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="83"/>
       <c r="S53" s="32"/>
       <c r="T53" s="34"/>
       <c r="U53" s="43"/>
@@ -4791,23 +4939,23 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="57"/>
       <c r="E54" s="58"/>
-      <c r="F54" s="101"/>
+      <c r="F54" s="85"/>
       <c r="G54" s="57"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="95"/>
+      <c r="I54" s="79"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="98"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="99"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="83"/>
       <c r="S54" s="32"/>
       <c r="T54" s="34"/>
       <c r="U54" s="43"/>
@@ -4819,23 +4967,23 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="57"/>
       <c r="E55" s="58"/>
-      <c r="F55" s="101"/>
+      <c r="F55" s="85"/>
       <c r="G55" s="57"/>
       <c r="H55" s="32"/>
-      <c r="I55" s="95"/>
+      <c r="I55" s="79"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="99"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="83"/>
       <c r="S55" s="32"/>
       <c r="T55" s="34"/>
       <c r="U55" s="43"/>
@@ -4847,23 +4995,23 @@
       <c r="A56" s="3">
         <v>51</v>
       </c>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="57"/>
       <c r="E56" s="58"/>
-      <c r="F56" s="101"/>
+      <c r="F56" s="85"/>
       <c r="G56" s="57"/>
       <c r="H56" s="32"/>
-      <c r="I56" s="95"/>
+      <c r="I56" s="79"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="99"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="83"/>
       <c r="S56" s="32"/>
       <c r="T56" s="34"/>
       <c r="U56" s="24"/>
@@ -4874,23 +5022,23 @@
       <c r="A57" s="3">
         <v>52</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="57"/>
       <c r="E57" s="58"/>
-      <c r="F57" s="101"/>
+      <c r="F57" s="85"/>
       <c r="G57" s="57"/>
       <c r="H57" s="32"/>
-      <c r="I57" s="95"/>
+      <c r="I57" s="79"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="99"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="83"/>
       <c r="S57" s="32"/>
       <c r="T57" s="34"/>
       <c r="U57" s="24"/>
@@ -4901,76 +5049,76 @@
       <c r="A58" s="3">
         <v>53</v>
       </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="57"/>
       <c r="E58" s="58"/>
-      <c r="F58" s="101"/>
+      <c r="F58" s="85"/>
       <c r="G58" s="57"/>
       <c r="H58" s="32"/>
-      <c r="I58" s="95"/>
+      <c r="I58" s="79"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="99"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="82"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="83"/>
       <c r="S58" s="32"/>
     </row>
     <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>54</v>
       </c>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="57"/>
       <c r="E59" s="58"/>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
       <c r="H59" s="32"/>
-      <c r="I59" s="95"/>
+      <c r="I59" s="79"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="99"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="82"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="83"/>
       <c r="S59" s="32"/>
     </row>
     <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>55</v>
       </c>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="57"/>
       <c r="E60" s="58"/>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
       <c r="H60" s="32"/>
-      <c r="I60" s="95"/>
+      <c r="I60" s="79"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="96"/>
-      <c r="P60" s="98"/>
-      <c r="Q60" s="96"/>
-      <c r="R60" s="99"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="82"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="83"/>
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>56</v>
       </c>
-      <c r="B61" s="94"/>
+      <c r="B61" s="78"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
@@ -4980,7 +5128,7 @@
       <c r="I61" s="52"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
-      <c r="L61" s="98" t="s">
+      <c r="L61" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M61" s="32"/>
@@ -4995,7 +5143,7 @@
       <c r="A62" s="3">
         <v>57</v>
       </c>
-      <c r="B62" s="94"/>
+      <c r="B62" s="78"/>
       <c r="C62" s="32"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
@@ -5005,7 +5153,7 @@
       <c r="I62" s="52"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
-      <c r="L62" s="98" t="s">
+      <c r="L62" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M62" s="32"/>
@@ -5020,7 +5168,7 @@
       <c r="A63" s="3">
         <v>58</v>
       </c>
-      <c r="B63" s="94"/>
+      <c r="B63" s="78"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
@@ -5030,7 +5178,7 @@
       <c r="I63" s="52"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
-      <c r="L63" s="98" t="s">
+      <c r="L63" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M63" s="32"/>
@@ -5045,7 +5193,7 @@
       <c r="A64" s="3">
         <v>59</v>
       </c>
-      <c r="B64" s="94"/>
+      <c r="B64" s="78"/>
       <c r="C64" s="32"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
@@ -5055,7 +5203,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
-      <c r="L64" s="98" t="s">
+      <c r="L64" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M64" s="32"/>
@@ -5070,7 +5218,7 @@
       <c r="A65" s="3">
         <v>60</v>
       </c>
-      <c r="B65" s="94"/>
+      <c r="B65" s="78"/>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32"/>
@@ -5080,7 +5228,7 @@
       <c r="I65" s="52"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
-      <c r="L65" s="98" t="s">
+      <c r="L65" s="82" t="s">
         <v>61</v>
       </c>
       <c r="M65" s="32"/>
@@ -5093,13 +5241,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5111,6 +5252,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5121,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5154,41 +5302,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5233,58 +5381,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="98" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5309,23 +5457,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5347,19 +5495,37 @@
         <v>63</v>
       </c>
       <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="I6" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>95</v>
+      </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="65"/>
+      <c r="O6" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="74"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5386,19 +5552,35 @@
         <v>63</v>
       </c>
       <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
+      <c r="I7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="63" t="s">
+        <v>86</v>
+      </c>
       <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="M7" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="65"/>
+      <c r="O7" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="74"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5422,20 +5604,40 @@
       <c r="G8" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
+      <c r="H8" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="64" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="65"/>
+      <c r="O8" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="74"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5459,20 +5661,38 @@
       <c r="G9" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>86</v>
+      </c>
       <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="M9" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="65"/>
+      <c r="O9" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="65" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="74"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5498,20 +5718,38 @@
       <c r="G10" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>86</v>
+      </c>
       <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
+      <c r="M10" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="65"/>
+      <c r="O10" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="65" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="74"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5540,7 +5778,7 @@
       <c r="R11" s="65"/>
       <c r="S11" s="74"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5569,7 +5807,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5600,7 +5838,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5629,7 +5867,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5658,7 +5896,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5687,7 +5925,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5805,7 +6043,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5837,7 +6075,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6082,7 +6320,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -6274,7 +6512,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6306,7 +6544,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6338,7 +6576,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7040,9 +7278,7 @@
       <c r="I61" s="52"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L61" s="39"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
       <c r="O61" s="32"/>
@@ -7065,9 +7301,7 @@
       <c r="I62" s="52"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L62" s="39"/>
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
@@ -7090,9 +7324,7 @@
       <c r="I63" s="52"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L63" s="39"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
@@ -7115,9 +7347,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L64" s="39"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
@@ -7140,9 +7370,7 @@
       <c r="I65" s="52"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L65" s="39"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
@@ -7403,13 +7631,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7421,6 +7642,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7431,8 +7659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7464,41 +7692,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7543,58 +7771,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="98" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7619,23 +7847,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7669,7 +7897,7 @@
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7708,7 +7936,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7735,9 +7963,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>106</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="s">
+        <v>102</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
@@ -7747,7 +7979,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7773,20 +8005,36 @@
       <c r="G9" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7812,20 +8060,38 @@
       <c r="G10" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="H10" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7849,20 +8115,40 @@
       <c r="G11" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="39"/>
+      <c r="H11" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7899,7 +8185,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7930,7 +8216,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7959,7 +8245,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7988,7 +8274,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8017,7 +8303,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8135,7 +8421,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8199,7 +8485,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -8412,7 +8698,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -8604,7 +8890,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -8636,7 +8922,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -8668,7 +8954,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9733,13 +10019,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9751,6 +10030,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9794,41 +10080,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -9873,58 +10159,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="98" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -9949,23 +10235,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9999,7 +10285,7 @@
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10038,7 +10324,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10075,7 +10361,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10104,7 +10390,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10133,7 +10419,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10162,7 +10448,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10191,7 +10477,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10222,7 +10508,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10251,7 +10537,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10280,7 +10566,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10309,7 +10595,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12025,13 +12311,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12043,6 +12322,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12086,41 +12372,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12165,58 +12451,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="98" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -12241,23 +12527,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12291,7 +12577,7 @@
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12330,7 +12616,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12367,7 +12653,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12396,7 +12682,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12425,7 +12711,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12454,7 +12740,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12483,7 +12769,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12514,7 +12800,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12543,7 +12829,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12572,7 +12858,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12601,7 +12887,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14317,13 +14603,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14335,6 +14614,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14346,7 +14632,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14378,41 +14664,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14457,58 +14743,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="98" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -14533,23 +14819,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14572,18 +14858,30 @@
       </c>
       <c r="H6" s="57"/>
       <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
+      <c r="J6" s="62" t="s">
+        <v>79</v>
+      </c>
       <c r="K6" s="63"/>
       <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="M6" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="65"/>
+      <c r="O6" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14611,18 +14909,30 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14651,7 +14961,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14680,7 +14990,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -14709,7 +15019,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14738,7 +15048,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14767,7 +15077,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -14798,7 +15108,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14827,7 +15137,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14856,7 +15166,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14885,7 +15195,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15003,7 +15313,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -15035,7 +15345,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -15344,7 +15654,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -15376,7 +15686,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -15536,7 +15846,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -15622,7 +15932,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -16601,13 +16911,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16619,6 +16922,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16662,39 +16972,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -16739,58 +17049,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="98" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -16815,23 +17125,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16857,7 +17167,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -16888,7 +17198,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -16917,7 +17227,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -16946,7 +17256,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -16975,7 +17285,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17004,7 +17314,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17033,7 +17343,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17064,7 +17374,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17093,7 +17403,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17122,7 +17432,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17151,7 +17461,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18382,6 +18692,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18393,13 +18710,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanBG.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -371,6 +371,60 @@
   <si>
     <t>125.212.203.114,16363</t>
   </si>
+  <si>
+    <t>Xử lý lại main, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi flash</t>
+  </si>
+  <si>
+    <t>Thay flash</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.190820</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Cháy led GPS</t>
+  </si>
+  <si>
+    <t>Thay led GSP</t>
+  </si>
+  <si>
+    <t>B.2.27B</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14848</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001504091105, hết hạn dịch vụ</t>
+  </si>
 </sst>
 </file>
 
@@ -597,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -864,28 +918,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,6 +938,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1251,40 +1308,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1327,57 +1384,57 @@
       <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1402,23 +1459,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
     </row>
     <row r="6" spans="1:22" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1451,7 +1508,7 @@
       <c r="R6" s="83"/>
       <c r="S6" s="84"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1509,7 +1566,7 @@
       </c>
       <c r="S7" s="84"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1537,7 +1594,7 @@
       <c r="R8" s="83"/>
       <c r="S8" s="84"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1565,7 +1622,7 @@
       <c r="R9" s="83"/>
       <c r="S9" s="84"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1593,7 +1650,7 @@
       <c r="R10" s="83"/>
       <c r="S10" s="84"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1621,7 +1678,7 @@
       <c r="R11" s="83"/>
       <c r="S11" s="84"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="100"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1649,7 +1706,7 @@
       <c r="R12" s="83"/>
       <c r="S12" s="84"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1679,7 +1736,7 @@
       <c r="R13" s="83"/>
       <c r="S13" s="84"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="100"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1707,7 +1764,7 @@
       <c r="R14" s="83"/>
       <c r="S14" s="84"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="100"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1735,7 +1792,7 @@
       <c r="R15" s="83"/>
       <c r="S15" s="84"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="100"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1763,7 +1820,7 @@
       <c r="R16" s="83"/>
       <c r="S16" s="84"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="101"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3173,6 +3230,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3184,13 +3248,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3234,41 +3291,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3313,58 +3370,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3389,23 +3446,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3455,7 +3512,7 @@
       </c>
       <c r="S6" s="84"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3510,7 +3567,7 @@
       </c>
       <c r="S7" s="84"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3539,7 +3596,7 @@
       <c r="R8" s="83"/>
       <c r="S8" s="84"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3568,7 +3625,7 @@
       <c r="R9" s="83"/>
       <c r="S9" s="84"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3597,7 +3654,7 @@
       <c r="R10" s="83"/>
       <c r="S10" s="84"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3626,7 +3683,7 @@
       <c r="R11" s="83"/>
       <c r="S11" s="84"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="100"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3655,7 +3712,7 @@
       <c r="R12" s="83"/>
       <c r="S12" s="84"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3686,7 +3743,7 @@
       <c r="R13" s="83"/>
       <c r="S13" s="84"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="100"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3715,7 +3772,7 @@
       <c r="R14" s="83"/>
       <c r="S14" s="84"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="100"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3744,7 +3801,7 @@
       <c r="R15" s="83"/>
       <c r="S15" s="84"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="100"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3773,7 +3830,7 @@
       <c r="R16" s="83"/>
       <c r="S16" s="84"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="101"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5241,6 +5298,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5252,13 +5316,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5302,41 +5359,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5381,58 +5438,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5457,23 +5514,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5525,7 +5582,7 @@
       </c>
       <c r="S6" s="74"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5580,7 +5637,7 @@
       </c>
       <c r="S7" s="74"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5637,7 +5694,7 @@
       </c>
       <c r="S8" s="74"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5692,7 +5749,7 @@
       </c>
       <c r="S9" s="74"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5749,7 +5806,7 @@
       </c>
       <c r="S10" s="74"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5778,7 +5835,7 @@
       <c r="R11" s="65"/>
       <c r="S11" s="74"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="100"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5807,7 +5864,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5838,7 +5895,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="100"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5867,7 +5924,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="100"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5896,7 +5953,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="100"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5925,7 +5982,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="101"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7631,6 +7688,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7642,13 +7706,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7659,8 +7716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7692,41 +7749,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7771,58 +7828,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7847,57 +7904,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="74">
         <v>1</v>
       </c>
       <c r="B6" s="59">
         <v>44861</v>
       </c>
       <c r="C6" s="59"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="73">
         <v>864811037169815</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="60"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="62"/>
+      <c r="I6" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>98</v>
+      </c>
       <c r="K6" s="63"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="64"/>
+      <c r="L6" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>107</v>
+      </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="74"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7906,286 +7979,330 @@
       <c r="W6" s="67"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="74">
         <v>2</v>
       </c>
       <c r="B7" s="59">
         <v>44861</v>
       </c>
       <c r="C7" s="59"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="73">
         <v>868926033918407</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="74"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="67"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="74">
         <v>3</v>
       </c>
       <c r="B8" s="59">
         <v>44861</v>
       </c>
       <c r="C8" s="59"/>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="73">
         <v>868926033936144</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51" t="s">
+      <c r="H8" s="60"/>
+      <c r="I8" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="62"/>
+      <c r="K8" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="74"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="67"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="74">
         <v>4</v>
       </c>
       <c r="B9" s="59">
         <v>44861</v>
       </c>
       <c r="C9" s="59"/>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="73">
         <v>864811036929946</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="62"/>
+      <c r="K9" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="39" t="s">
+      <c r="L9" s="62"/>
+      <c r="M9" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="62"/>
+      <c r="O9" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="74"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="67"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="74">
         <v>5</v>
       </c>
       <c r="B10" s="59">
         <v>44861</v>
       </c>
       <c r="C10" s="59"/>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="73">
         <v>864811037229346</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39" t="s">
+      <c r="L10" s="64"/>
+      <c r="M10" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="62"/>
+      <c r="O10" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="74"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="67"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="74">
         <v>6</v>
       </c>
       <c r="B11" s="59">
         <v>44861</v>
       </c>
       <c r="C11" s="59"/>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="73">
         <v>868926033906766</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="N11" s="62"/>
+      <c r="O11" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="74"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="100"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="W11" s="67"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="74">
         <v>7</v>
       </c>
       <c r="B12" s="59">
         <v>44861</v>
       </c>
       <c r="C12" s="59"/>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="73">
         <v>864811036926934</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57" t="s">
+      <c r="F12" s="60"/>
+      <c r="G12" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="90">
+        <v>190000</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="74"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8216,7 +8333,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="100"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8245,7 +8362,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="100"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8274,7 +8391,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="100"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8303,7 +8420,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="101"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8421,7 +8538,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8453,7 +8570,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8485,7 +8602,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -8634,7 +8751,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -8698,7 +8815,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -8762,7 +8879,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -8890,7 +9007,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -8922,7 +9039,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -8954,7 +9071,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9307,7 +9424,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -10019,6 +10136,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10030,13 +10154,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10048,7 +10165,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10080,41 +10197,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10159,58 +10276,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -10235,23 +10352,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10273,9 +10390,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="I6" s="61" t="s">
+        <v>87</v>
+      </c>
       <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="63" t="s">
+        <v>116</v>
+      </c>
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
       <c r="N6" s="62"/>
@@ -10285,7 +10406,7 @@
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10311,20 +10432,38 @@
       <c r="G7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="63" t="s">
+        <v>112</v>
+      </c>
       <c r="L7" s="63"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10344,24 +10483,44 @@
       <c r="E8" s="58">
         <v>863586032923637</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="57" t="s">
+        <v>67</v>
+      </c>
       <c r="G8" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="39"/>
+      <c r="H8" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10390,7 +10549,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10419,7 +10578,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10448,7 +10607,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="100"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10477,7 +10636,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10508,7 +10667,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="100"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10537,7 +10696,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="100"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10566,7 +10725,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="100"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10595,7 +10754,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="101"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10713,7 +10872,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -10745,7 +10904,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11054,7 +11213,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -11182,7 +11341,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11246,7 +11405,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12311,6 +12470,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12322,13 +12488,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12339,8 +12498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12372,41 +12531,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12451,58 +12610,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -12527,23 +12686,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12565,19 +12724,37 @@
         <v>63</v>
       </c>
       <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="I6" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="65"/>
+      <c r="O6" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12603,20 +12780,38 @@
       <c r="G7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K7" s="55"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12641,19 +12836,35 @@
         <v>63</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>117</v>
+      </c>
       <c r="L8" s="63"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12682,7 +12893,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12711,7 +12922,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12740,7 +12951,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="100"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12769,7 +12980,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12800,7 +13011,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="100"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12829,7 +13040,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="100"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12858,7 +13069,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="100"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12887,7 +13098,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="101"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13005,7 +13216,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13037,7 +13248,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13346,7 +13557,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13474,7 +13685,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13538,7 +13749,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14603,6 +14814,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14614,13 +14832,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14664,41 +14875,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14743,58 +14954,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -14819,23 +15030,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14881,7 +15092,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14932,7 +15143,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14961,7 +15172,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14990,7 +15201,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15019,7 +15230,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15048,7 +15259,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="100"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15077,7 +15288,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15108,7 +15319,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="100"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15137,7 +15348,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="100"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15166,7 +15377,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="100"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15195,7 +15406,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="101"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16911,6 +17122,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16922,13 +17140,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16972,39 +17183,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -17049,58 +17260,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -17125,23 +17336,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17167,7 +17378,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17198,7 +17409,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17227,7 +17438,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17256,7 +17467,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17285,7 +17496,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17314,7 +17525,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="100"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17343,7 +17554,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17374,7 +17585,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="100"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17403,7 +17614,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="100"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17432,7 +17643,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="100"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17461,7 +17672,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="101"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18692,13 +18903,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18710,6 +18914,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="52" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -424,6 +424,21 @@
   </si>
   <si>
     <t>ID cũ: 000001504091105, hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048294964</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(STM)</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(GD)</t>
+  </si>
+  <si>
+    <t>Thiết bị chốt GSM chậm</t>
+  </si>
+  <si>
+    <t>Thay thế MCU</t>
   </si>
 </sst>
 </file>
@@ -1275,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showZeros="0" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1484,9 +1499,11 @@
       <c r="B6" s="78">
         <v>44861</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="78">
+        <v>44868</v>
+      </c>
       <c r="D6" s="57" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="E6" s="58">
         <v>862205051196444</v>
@@ -1495,17 +1512,35 @@
       <c r="G6" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
+      <c r="H6" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>128</v>
+      </c>
       <c r="K6" s="81"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
+      <c r="L6" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="82" t="s">
+        <v>129</v>
+      </c>
       <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="83"/>
+      <c r="O6" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="83" t="s">
+        <v>20</v>
+      </c>
       <c r="S6" s="84"/>
       <c r="T6" s="67"/>
       <c r="U6" s="99" t="s">
@@ -1522,9 +1557,11 @@
       <c r="B7" s="78">
         <v>44861</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="78">
+        <v>44868</v>
+      </c>
       <c r="D7" s="57" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="E7" s="58">
         <v>862205051184069</v>
@@ -1965,7 +2002,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,7 +2146,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2450,7 +2487,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3258,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:R7"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3472,7 +3509,9 @@
       <c r="B6" s="78">
         <v>44861</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="78">
+        <v>44868</v>
+      </c>
       <c r="D6" s="57" t="s">
         <v>66</v>
       </c>
@@ -3527,7 +3566,9 @@
       <c r="B7" s="78">
         <v>44861</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="78">
+        <v>44868</v>
+      </c>
       <c r="D7" s="57" t="s">
         <v>66</v>
       </c>
@@ -5326,8 +5367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:R7"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5540,7 +5581,9 @@
       <c r="B6" s="59">
         <v>44861</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="78">
+        <v>44868</v>
+      </c>
       <c r="D6" s="57" t="s">
         <v>44</v>
       </c>
@@ -5597,7 +5640,9 @@
       <c r="B7" s="59">
         <v>44861</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="78">
+        <v>44868</v>
+      </c>
       <c r="D7" s="57" t="s">
         <v>44</v>
       </c>
@@ -5650,7 +5695,9 @@
       <c r="B8" s="59">
         <v>44861</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="78">
+        <v>44868</v>
+      </c>
       <c r="D8" s="57" t="s">
         <v>44</v>
       </c>
@@ -5707,7 +5754,9 @@
       <c r="B9" s="59">
         <v>44861</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="78">
+        <v>44868</v>
+      </c>
       <c r="D9" s="57" t="s">
         <v>44</v>
       </c>
@@ -5762,7 +5811,9 @@
       <c r="B10" s="59">
         <v>44861</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="78">
+        <v>44868</v>
+      </c>
       <c r="D10" s="57" t="s">
         <v>44</v>
       </c>
@@ -7716,8 +7767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showZeros="0" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7930,7 +7981,9 @@
       <c r="B6" s="59">
         <v>44861</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="78">
+        <v>44868</v>
+      </c>
       <c r="D6" s="60" t="s">
         <v>68</v>
       </c>
@@ -7985,7 +8038,9 @@
       <c r="B7" s="59">
         <v>44861</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="78">
+        <v>44868</v>
+      </c>
       <c r="D7" s="60" t="s">
         <v>68</v>
       </c>
@@ -8038,7 +8093,9 @@
       <c r="B8" s="59">
         <v>44861</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="78">
+        <v>44868</v>
+      </c>
       <c r="D8" s="60" t="s">
         <v>68</v>
       </c>
@@ -8091,7 +8148,9 @@
       <c r="B9" s="59">
         <v>44861</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="78">
+        <v>44868</v>
+      </c>
       <c r="D9" s="60" t="s">
         <v>68</v>
       </c>
@@ -8146,7 +8205,9 @@
       <c r="B10" s="59">
         <v>44861</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="78">
+        <v>44868</v>
+      </c>
       <c r="D10" s="60" t="s">
         <v>68</v>
       </c>
@@ -8203,7 +8264,9 @@
       <c r="B11" s="59">
         <v>44861</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="78">
+        <v>44868</v>
+      </c>
       <c r="D11" s="60" t="s">
         <v>68</v>
       </c>
@@ -8260,7 +8323,9 @@
       <c r="B12" s="59">
         <v>44861</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="78">
+        <v>44868</v>
+      </c>
       <c r="D12" s="60" t="s">
         <v>68</v>
       </c>
@@ -8271,7 +8336,9 @@
       <c r="G12" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="75"/>
+      <c r="H12" s="75" t="s">
+        <v>125</v>
+      </c>
       <c r="I12" s="61" t="s">
         <v>87</v>
       </c>
@@ -10164,8 +10231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10378,33 +10445,51 @@
       <c r="B6" s="59">
         <v>44861</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="59">
+        <v>44868</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="73">
         <v>861694031773136</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57" t="s">
+      <c r="F6" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="60"/>
+      <c r="H6" s="60" t="s">
+        <v>90</v>
+      </c>
       <c r="I6" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="62"/>
+      <c r="J6" s="62" t="s">
+        <v>88</v>
+      </c>
       <c r="K6" s="63" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="M6" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="74"/>
       <c r="T6" s="76"/>
       <c r="U6" s="99" t="s">
         <v>18</v>
@@ -10421,15 +10506,17 @@
       <c r="B7" s="59">
         <v>44861</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="59">
+        <v>44868</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="73">
         <v>861694037954219</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="60" t="s">
@@ -10445,23 +10532,23 @@
         <v>112</v>
       </c>
       <c r="L7" s="63"/>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="74"/>
       <c r="T7" s="76"/>
       <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
@@ -10476,17 +10563,19 @@
       <c r="B8" s="59">
         <v>44861</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="59">
+        <v>44868</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="73">
         <v>863586032923637</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="60" t="s">
         <v>63</v>
       </c>
       <c r="H8" s="60" t="s">
@@ -10502,23 +10591,23 @@
       <c r="L8" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="62"/>
+      <c r="O8" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="74"/>
       <c r="T8" s="76"/>
       <c r="U8" s="100"/>
       <c r="V8" s="3" t="s">
@@ -10872,7 +10961,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11373,7 +11462,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -11405,7 +11494,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12498,8 +12587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12712,7 +12801,9 @@
       <c r="B6" s="59">
         <v>44861</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="78">
+        <v>44868</v>
+      </c>
       <c r="D6" s="57" t="s">
         <v>70</v>
       </c>
@@ -12769,7 +12860,9 @@
       <c r="B7" s="59">
         <v>44861</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="78">
+        <v>44868</v>
+      </c>
       <c r="D7" s="57" t="s">
         <v>70</v>
       </c>
@@ -12824,7 +12917,9 @@
       <c r="B8" s="59">
         <v>44861</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="78">
+        <v>44868</v>
+      </c>
       <c r="D8" s="57" t="s">
         <v>70</v>
       </c>
@@ -14842,8 +14937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15056,18 +15151,20 @@
       <c r="B6" s="59">
         <v>44861</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="59">
+        <v>44868</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="57"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="60"/>
       <c r="I6" s="61"/>
       <c r="J6" s="62" t="s">
         <v>79</v>
@@ -15090,7 +15187,7 @@
       <c r="R6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="74"/>
       <c r="T6" s="67"/>
       <c r="U6" s="99" t="s">
         <v>18</v>
@@ -15107,41 +15204,43 @@
       <c r="B7" s="59">
         <v>44861</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="59">
+        <v>44868</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="74"/>
       <c r="T7" s="67"/>
       <c r="U7" s="100"/>
       <c r="V7" s="3" t="s">
